--- a/INTLINE/data/132/INSEE/SERIE/Hourly wage rate indice for labourers - All non-agricultural sectors.xlsx
+++ b/INTLINE/data/132/INSEE/SERIE/Hourly wage rate indice for labourers - All non-agricultural sectors.xlsx
@@ -1,43 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="INS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>(r) 104.9</t>
+  </si>
+  <si>
+    <t>(na)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,38 +96,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -85,14 +115,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -381,232 +412,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Quarter</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
         <v>107.3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>106.8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>106.5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>106.2</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>105.5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>105.2</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(r) 104.9</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>(na)</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4">
         <v>103.8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>103.6</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>103.3</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>102.8</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>102</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>101.8</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>101.5</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>101.1</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>100.4</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>100.3</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>100</v>
       </c>
     </row>
@@ -618,6 +585,6 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:T1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/132/INSEE/SERIE/Hourly wage rate indice for labourers - All non-agricultural sectors.xlsx
+++ b/INTLINE/data/132/INSEE/SERIE/Hourly wage rate indice for labourers - All non-agricultural sectors.xlsx
@@ -1,93 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="INS" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INS" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Quarter</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>(r) 104.9</t>
-  </si>
-  <si>
-    <t>(na)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -96,18 +46,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -115,15 +85,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -412,179 +381,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>9</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Quarter</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="C4" t="n">
         <v>107.3</v>
       </c>
-      <c r="C4">
+      <c r="D4" t="n">
         <v>106.8</v>
       </c>
-      <c r="D4">
+      <c r="E4" t="n">
         <v>106.5</v>
       </c>
-      <c r="E4">
+      <c r="F4" t="n">
         <v>106.2</v>
       </c>
-      <c r="F4">
+      <c r="G4" t="n">
         <v>105.5</v>
       </c>
-      <c r="G4">
+      <c r="H4" t="n">
         <v>105.2</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(r) 104.9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>(na)</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>103.8</v>
       </c>
-      <c r="K4">
+      <c r="L4" t="n">
         <v>103.6</v>
       </c>
-      <c r="L4">
+      <c r="M4" t="n">
         <v>103.3</v>
       </c>
-      <c r="M4">
+      <c r="N4" t="n">
         <v>102.8</v>
       </c>
-      <c r="N4">
+      <c r="O4" t="n">
         <v>102</v>
       </c>
-      <c r="O4">
+      <c r="P4" t="n">
         <v>101.8</v>
       </c>
-      <c r="P4">
+      <c r="Q4" t="n">
         <v>101.5</v>
       </c>
-      <c r="Q4">
+      <c r="R4" t="n">
         <v>101.1</v>
       </c>
-      <c r="R4">
+      <c r="S4" t="n">
         <v>100.4</v>
       </c>
-      <c r="S4">
+      <c r="T4" t="n">
         <v>100.3</v>
       </c>
-      <c r="T4">
+      <c r="U4" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>